--- a/todo.xlsx
+++ b/todo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="24135" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,10 +107,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -261,23 +261,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,6 +316,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -328,61 +358,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,6 +430,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -412,7 +478,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,79 +496,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,10 +630,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -642,133 +642,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1128,9 +1128,9 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6666666666667" defaultRowHeight="20" customHeight="1" outlineLevelCol="3"/>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="16" ht="25" customHeight="1" spans="1:4">
       <c r="A16" s="5"/>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="8"/>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="17" ht="25" customHeight="1" spans="1:4">
       <c r="A17" s="5"/>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="8"/>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="18" ht="25" customHeight="1" spans="1:4">
       <c r="A18" s="5"/>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="8"/>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24135" windowHeight="12630"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -146,6 +146,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -169,9 +207,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,6 +237,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -187,21 +261,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,66 +282,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -316,187 +316,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,6 +549,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -578,50 +622,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -630,10 +630,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -642,133 +642,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -803,7 +803,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1130,7 +1130,7 @@
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6666666666667" defaultRowHeight="20" customHeight="1" outlineLevelCol="3"/>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>任务清单</t>
   </si>
@@ -101,16 +101,27 @@
 4、产品兑换产生的积分
 5、及公司总共产生积分总和</t>
   </si>
+  <si>
+    <t>1、没有审核的不显示在人数，和关系图里面，关系图调整目前的摆放，
+会员稍微多一点就看不到信息，横向摆放，应该可以看到1、2代会员信息和职位，你们有好的方式也行</t>
+  </si>
+  <si>
+    <t>2、经理，副总监，总监，总经理，级差奖励错误，比如经理2代外进入一个会员赚了400积分、上面有个副总监本来是800收益，应该这个部门有一个经理，那他就只可以赚400积分，其他没有职位的部门，副总监才可以赚800积分，上面其他职位也是以此类推</t>
+  </si>
+  <si>
+    <t>3、系统后台的客户关系管理，显示所有会员，是系统的多少代，显示的方式，在代理商管理那里，全部以数字的形式
+比如：平台是总得，会员代数用123456789......................一直下去</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -146,44 +157,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -207,13 +180,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -221,25 +218,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -267,19 +258,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -316,6 +327,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -334,169 +507,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,50 +560,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -622,6 +589,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -630,10 +641,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -642,137 +653,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -804,6 +815,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1125,12 +1139,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6666666666667" defaultRowHeight="20" customHeight="1" outlineLevelCol="3"/>
@@ -1362,23 +1376,44 @@
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" customHeight="1" spans="1:2">
+    <row r="22" customHeight="1" spans="1:4">
       <c r="A22" s="5"/>
       <c r="B22" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" customHeight="1" spans="1:2">
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:4">
       <c r="A23" s="5"/>
       <c r="B23" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:1">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" ht="52" customHeight="1" spans="1:4">
       <c r="A24" s="5"/>
-    </row>
-    <row r="25" customHeight="1" spans="1:1">
+      <c r="B24" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" ht="67" customHeight="1" spans="1:4">
       <c r="A25" s="5"/>
+      <c r="B25" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" ht="58" customHeight="1" spans="2:4">
+      <c r="B26" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
